--- a/docs/odh/shr-core-RelationToLandmark-model.xlsx
+++ b/docs/odh/shr-core-RelationToLandmark-model.xlsx
@@ -134,7 +134,17 @@
     <t>*</t>
   </si>
   <si>
-    <t>An anatomical landmark that helps determine a body location.</t>
+    <t>The relationship between a landmark that helps determine a body location and the body location itself. The location relative to a landmark is specified by:
+* Specifying the location and type of landmark using a body site code and optional laterality/orientation,
+* Specifying the direction from the landmark to the body location, and
+* Specifying the distance from the landmark to the body location.
+The RelationToLandmark element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
++ Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
++ Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
++ Relation to landmark: The location relative to a landmark is specified by:
+- Establishing the location and type of landmark using a body site code and optional laterality/orientation, and
+- Specifying the direction and distance from the landmark to the body location.
+Note that BodyLocation is a data type (a reusable structure), not a stand-alone entity. The concept is similar to how a postal address can apply to a person, location, or organization. This contrasts with FHIR's stand-alone BodySite (aka BodyStructure in r4) which 'is not ... intended for describing the type of anatomical location but rather a specific body site on a specific patient' (FHIR 3.5).</t>
   </si>
   <si>
     <t>shr-core-RelationToLandmark-model.landmarkType</t>
@@ -147,43 +157,43 @@
 </t>
   </si>
   <si>
-    <t>The type of feature that constitutes the landmark, for example, particularly if the landmark is an acquired body structure or physical object.</t>
+    <t>The type of feature that constitutes the landmark, particularly if the landmark is an acquired body structure or physical object.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/LandmarkTypeVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-LandmarkTypeVS</t>
   </si>
   <si>
     <t>shr-core-RelationToLandmark-model.landmarkLocation</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-LandmarkLocation-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-LandmarkLocation-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>The body location of the landmark.</t>
+    <t>The body location of the landmark, specified by a location code and optional laterality and orientation.</t>
   </si>
   <si>
     <t>shr-core-RelationToLandmark-model.landmarkToBodyLocationDirection[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ClockFaceDirection-model {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-AnatomicalDirection-model {[]} {[]}</t>
-  </si>
-  <si>
-    <t>The direction from the landmark to the body location of interest.</t>
+    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ClockFaceDirection-model {[]} {[]}
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AnatomicalDirection-model {[]} {[]}</t>
+  </si>
+  <si>
+    <t>The direction from the landmark to the body location of interest, given as a clockface direction or anatomical direction.</t>
   </si>
   <si>
     <t>shr-core-RelationToLandmark-model.landmarkToBodyLocationDistance</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Quantity-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Quantity-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>How far the anatomical location of interest is from the given landmark</t>
+    <t>How far the body location of interest is from the given landmark.</t>
   </si>
   <si>
     <t>shr-core-RelationToLandmark-model.landmarkToBodyLocationDistance.number</t>
@@ -214,7 +224,7 @@
     <t>The unit of measure of the quantity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/UnitsOfLengthVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-UnitsOfLengthVS</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0805701
@@ -367,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -386,7 +396,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="125.61328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="113.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -400,7 +410,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.97265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.66796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
